--- a/fis_502.xlsx
+++ b/fis_502.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -24,72 +24,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>29/04/2025 - 08:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VAGAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Classificação</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nome</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>EXCEDENTES</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000009"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Professor Regente B (PR-B) - Física</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color rgb="FF000009"/>
         <rFont val="Times New Roman"/>
@@ -812,6 +752,9 @@
       </rPr>
       <t>FLÁVIA NEIVA LAMIM</t>
     </r>
+  </si>
+  <si>
+    <t>FIM - FÍSICA</t>
   </si>
 </sst>
 </file>
@@ -920,12 +863,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -1240,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1253,579 +1193,555 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>30</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>31</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>32</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>33</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>34</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    </row>
+    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>36</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    </row>
+    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>37</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    </row>
+    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    </row>
+    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    </row>
+    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    </row>
+    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>41</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    </row>
+    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>42</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    </row>
+    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    </row>
+    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    </row>
+    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    </row>
+    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>46</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    </row>
+    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>47</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    </row>
+    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>48</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    </row>
+    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>49</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    </row>
+    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>50</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>11</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>15</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>16</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>17</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>19</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>20</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>21</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>22</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>24</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>25</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>26</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>27</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>28</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>29</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>30</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>31</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>32</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>33</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>34</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>35</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>36</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>37</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>38</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>39</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>40</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>41</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>42</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>43</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>44</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>46</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>47</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>49</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>50</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
